--- a/reviews.xlsx
+++ b/reviews.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FF1517-6D3D-42B4-941C-F435676F20E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9195AC5-ECC3-4D4D-8788-0C2D0B8F84C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>score</t>
   </si>
   <si>
-    <t xml:space="preserve">ssn </t>
-  </si>
-  <si>
     <t>type_name</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>Perfectly suitable for a business trip.</t>
+  </si>
+  <si>
+    <t>ssn</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -420,10 +420,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -431,7 +431,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1">
         <v>44660</v>
@@ -443,7 +443,7 @@
         <v>153428961</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -460,7 +460,7 @@
         <v>107290304</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -468,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1">
         <v>44768</v>
@@ -480,7 +480,7 @@
         <v>107211145</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -497,7 +497,7 @@
         <v>151546513</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -505,7 +505,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1">
         <v>44861</v>
@@ -517,7 +517,7 @@
         <v>457522463</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -525,7 +525,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
         <v>44875</v>
@@ -537,7 +537,7 @@
         <v>569784126</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -554,7 +554,7 @@
         <v>107268069</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/reviews.xlsx
+++ b/reviews.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\apnev\Documents\GitHub\hotel_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9195AC5-ECC3-4D4D-8788-0C2D0B8F84C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE9B029-8E59-4D93-B003-B5F1E950D80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>review_id</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>ssn</t>
+  </si>
+  <si>
+    <t>Χάλια, αλλά οι ιδιοκτήτριες πολύ όμορφες!</t>
   </si>
 </sst>
 </file>
@@ -116,7 +119,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -394,15 +397,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="44.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -544,6 +548,9 @@
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
       <c r="C8" s="1">
         <v>44923</v>
       </c>
@@ -556,6 +563,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
